--- a/INTLINE/data/193/ABS/645701.xlsx
+++ b/INTLINE/data/193/ABS/645701.xlsx
@@ -12,194 +12,194 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2295765J">Data1!$B$1:$B$10,Data1!$B$11:$B$172</definedName>
-    <definedName name="A2295765J_Data">Data1!$B$11:$B$172</definedName>
-    <definedName name="A2295765J_Latest">Data1!$B$172</definedName>
-    <definedName name="A2295766K">Data1!$C$1:$C$10,Data1!$C$12:$C$172</definedName>
-    <definedName name="A2295766K_Data">Data1!$C$12:$C$172</definedName>
-    <definedName name="A2295766K_Latest">Data1!$C$172</definedName>
-    <definedName name="A2295767L">Data1!$D$1:$D$10,Data1!$D$15:$D$172</definedName>
-    <definedName name="A2295767L_Data">Data1!$D$15:$D$172</definedName>
-    <definedName name="A2295767L_Latest">Data1!$D$172</definedName>
-    <definedName name="A2295768R">Data1!$E$1:$E$10,Data1!$E$11:$E$172</definedName>
-    <definedName name="A2295768R_Data">Data1!$E$11:$E$172</definedName>
-    <definedName name="A2295768R_Latest">Data1!$E$172</definedName>
-    <definedName name="A2295771C">Data1!$K$1:$K$10,Data1!$K$11:$K$172</definedName>
-    <definedName name="A2295771C_Data">Data1!$K$11:$K$172</definedName>
-    <definedName name="A2295771C_Latest">Data1!$K$172</definedName>
-    <definedName name="A2295774K">Data1!$N$1:$N$10,Data1!$N$11:$N$172</definedName>
-    <definedName name="A2295774K_Data">Data1!$N$11:$N$172</definedName>
-    <definedName name="A2295774K_Latest">Data1!$N$172</definedName>
-    <definedName name="A2295777T">Data1!$T$1:$T$10,Data1!$T$11:$T$172</definedName>
-    <definedName name="A2295777T_Data">Data1!$T$11:$T$172</definedName>
-    <definedName name="A2295777T_Latest">Data1!$T$172</definedName>
-    <definedName name="A2295780F">Data1!$V$1:$V$10,Data1!$V$11:$V$172</definedName>
-    <definedName name="A2295780F_Data">Data1!$V$11:$V$172</definedName>
-    <definedName name="A2295780F_Latest">Data1!$V$172</definedName>
-    <definedName name="A2295783L">Data1!$X$1:$X$10,Data1!$X$11:$X$172</definedName>
-    <definedName name="A2295783L_Data">Data1!$X$11:$X$172</definedName>
-    <definedName name="A2295783L_Latest">Data1!$X$172</definedName>
-    <definedName name="A2295786V">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$172</definedName>
-    <definedName name="A2295786V_Data">Data1!$AH$11:$AH$172</definedName>
-    <definedName name="A2295786V_Latest">Data1!$AH$172</definedName>
-    <definedName name="A2295789A">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$172</definedName>
-    <definedName name="A2295789A_Data">Data1!$AR$11:$AR$172</definedName>
-    <definedName name="A2295789A_Latest">Data1!$AR$172</definedName>
-    <definedName name="A2295792R">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$172</definedName>
-    <definedName name="A2295792R_Data">Data1!$BA$11:$BA$172</definedName>
-    <definedName name="A2295792R_Latest">Data1!$BA$172</definedName>
-    <definedName name="A2295795W">Data1!$BJ$1:$BJ$10,Data1!$BJ$18:$BJ$172</definedName>
-    <definedName name="A2295795W_Data">Data1!$BJ$18:$BJ$172</definedName>
-    <definedName name="A2295795W_Latest">Data1!$BJ$172</definedName>
-    <definedName name="A2295798C">Data1!$F$1:$F$10,Data1!$F$18:$F$172</definedName>
-    <definedName name="A2295798C_Data">Data1!$F$18:$F$172</definedName>
-    <definedName name="A2295798C_Latest">Data1!$F$172</definedName>
-    <definedName name="A2295801F">Data1!$G$1:$G$10,Data1!$G$18:$G$172</definedName>
-    <definedName name="A2295801F_Data">Data1!$G$18:$G$172</definedName>
-    <definedName name="A2295801F_Latest">Data1!$G$172</definedName>
-    <definedName name="A2295804L">Data1!$H$1:$H$10,Data1!$H$18:$H$172</definedName>
-    <definedName name="A2295804L_Data">Data1!$H$18:$H$172</definedName>
-    <definedName name="A2295804L_Latest">Data1!$H$172</definedName>
-    <definedName name="A2295807V">Data1!$I$1:$I$10,Data1!$I$18:$I$172</definedName>
-    <definedName name="A2295807V_Data">Data1!$I$18:$I$172</definedName>
-    <definedName name="A2295807V_Latest">Data1!$I$172</definedName>
-    <definedName name="A2295810J">Data1!$J$1:$J$10,Data1!$J$50:$J$172</definedName>
-    <definedName name="A2295810J_Data">Data1!$J$50:$J$172</definedName>
-    <definedName name="A2295810J_Latest">Data1!$J$172</definedName>
-    <definedName name="A2295813R">Data1!$L$1:$L$10,Data1!$L$18:$L$172</definedName>
-    <definedName name="A2295813R_Data">Data1!$L$18:$L$172</definedName>
-    <definedName name="A2295813R_Latest">Data1!$L$172</definedName>
-    <definedName name="A2295816W">Data1!$M$1:$M$10,Data1!$M$18:$M$172</definedName>
-    <definedName name="A2295816W_Data">Data1!$M$18:$M$172</definedName>
-    <definedName name="A2295816W_Latest">Data1!$M$172</definedName>
-    <definedName name="A2295819C">Data1!$O$1:$O$10,Data1!$O$18:$O$172</definedName>
-    <definedName name="A2295819C_Data">Data1!$O$18:$O$172</definedName>
-    <definedName name="A2295819C_Latest">Data1!$O$172</definedName>
-    <definedName name="A2295822T">Data1!$P$1:$P$10,Data1!$P$18:$P$172</definedName>
-    <definedName name="A2295822T_Data">Data1!$P$18:$P$172</definedName>
-    <definedName name="A2295822T_Latest">Data1!$P$172</definedName>
-    <definedName name="A2295825X">Data1!$Q$1:$Q$10,Data1!$Q$18:$Q$172</definedName>
-    <definedName name="A2295825X_Data">Data1!$Q$18:$Q$172</definedName>
-    <definedName name="A2295825X_Latest">Data1!$Q$172</definedName>
-    <definedName name="A2295828F">Data1!$R$1:$R$10,Data1!$R$18:$R$172</definedName>
-    <definedName name="A2295828F_Data">Data1!$R$18:$R$172</definedName>
-    <definedName name="A2295828F_Latest">Data1!$R$172</definedName>
-    <definedName name="A2295831V">Data1!$S$1:$S$10,Data1!$S$18:$S$172</definedName>
-    <definedName name="A2295831V_Data">Data1!$S$18:$S$172</definedName>
-    <definedName name="A2295831V_Latest">Data1!$S$172</definedName>
-    <definedName name="A2295834A">Data1!$U$1:$U$10,Data1!$U$18:$U$172</definedName>
-    <definedName name="A2295834A_Data">Data1!$U$18:$U$172</definedName>
-    <definedName name="A2295834A_Latest">Data1!$U$172</definedName>
-    <definedName name="A2295837J">Data1!$W$1:$W$10,Data1!$W$18:$W$172</definedName>
-    <definedName name="A2295837J_Data">Data1!$W$18:$W$172</definedName>
-    <definedName name="A2295837J_Latest">Data1!$W$172</definedName>
-    <definedName name="A2295840W">Data1!$Y$1:$Y$10,Data1!$Y$18:$Y$172</definedName>
-    <definedName name="A2295840W_Data">Data1!$Y$18:$Y$172</definedName>
-    <definedName name="A2295840W_Latest">Data1!$Y$172</definedName>
-    <definedName name="A2295843C">Data1!$Z$1:$Z$10,Data1!$Z$18:$Z$172</definedName>
-    <definedName name="A2295843C_Data">Data1!$Z$18:$Z$172</definedName>
-    <definedName name="A2295843C_Latest">Data1!$Z$172</definedName>
-    <definedName name="A2295846K">Data1!$AA$1:$AA$10,Data1!$AA$18:$AA$172</definedName>
-    <definedName name="A2295846K_Data">Data1!$AA$18:$AA$172</definedName>
-    <definedName name="A2295846K_Latest">Data1!$AA$172</definedName>
-    <definedName name="A2295849T">Data1!$AB$1:$AB$10,Data1!$AB$18:$AB$172</definedName>
-    <definedName name="A2295849T_Data">Data1!$AB$18:$AB$172</definedName>
-    <definedName name="A2295849T_Latest">Data1!$AB$172</definedName>
-    <definedName name="A2295852F">Data1!$AC$1:$AC$10,Data1!$AC$18:$AC$172</definedName>
-    <definedName name="A2295852F_Data">Data1!$AC$18:$AC$172</definedName>
-    <definedName name="A2295852F_Latest">Data1!$AC$172</definedName>
-    <definedName name="A2295855L">Data1!$AD$1:$AD$10,Data1!$AD$18:$AD$172</definedName>
-    <definedName name="A2295855L_Data">Data1!$AD$18:$AD$172</definedName>
-    <definedName name="A2295855L_Latest">Data1!$AD$172</definedName>
-    <definedName name="A2295858V">Data1!$AE$1:$AE$10,Data1!$AE$50:$AE$172</definedName>
-    <definedName name="A2295858V_Data">Data1!$AE$50:$AE$172</definedName>
-    <definedName name="A2295858V_Latest">Data1!$AE$172</definedName>
-    <definedName name="A2295861J">Data1!$AF$1:$AF$10,Data1!$AF$50:$AF$172</definedName>
-    <definedName name="A2295861J_Data">Data1!$AF$50:$AF$172</definedName>
-    <definedName name="A2295861J_Latest">Data1!$AF$172</definedName>
-    <definedName name="A2295864R">Data1!$AG$1:$AG$10,Data1!$AG$18:$AG$172</definedName>
-    <definedName name="A2295864R_Data">Data1!$AG$18:$AG$172</definedName>
-    <definedName name="A2295864R_Latest">Data1!$AG$172</definedName>
-    <definedName name="A2295867W">Data1!$AI$1:$AI$10,Data1!$AI$18:$AI$172</definedName>
-    <definedName name="A2295867W_Data">Data1!$AI$18:$AI$172</definedName>
-    <definedName name="A2295867W_Latest">Data1!$AI$172</definedName>
-    <definedName name="A2295870K">Data1!$AJ$1:$AJ$10,Data1!$AJ$18:$AJ$172</definedName>
-    <definedName name="A2295870K_Data">Data1!$AJ$18:$AJ$172</definedName>
-    <definedName name="A2295870K_Latest">Data1!$AJ$172</definedName>
-    <definedName name="A2295873T">Data1!$AK$1:$AK$10,Data1!$AK$18:$AK$172</definedName>
-    <definedName name="A2295873T_Data">Data1!$AK$18:$AK$172</definedName>
-    <definedName name="A2295873T_Latest">Data1!$AK$172</definedName>
-    <definedName name="A2295876X">Data1!$AL$1:$AL$10,Data1!$AL$18:$AL$172</definedName>
-    <definedName name="A2295876X_Data">Data1!$AL$18:$AL$172</definedName>
-    <definedName name="A2295876X_Latest">Data1!$AL$172</definedName>
-    <definedName name="A2295879F">Data1!$AM$1:$AM$10,Data1!$AM$18:$AM$172</definedName>
-    <definedName name="A2295879F_Data">Data1!$AM$18:$AM$172</definedName>
-    <definedName name="A2295879F_Latest">Data1!$AM$172</definedName>
-    <definedName name="A2295882V">Data1!$AN$1:$AN$10,Data1!$AN$18:$AN$172</definedName>
-    <definedName name="A2295882V_Data">Data1!$AN$18:$AN$172</definedName>
-    <definedName name="A2295882V_Latest">Data1!$AN$172</definedName>
-    <definedName name="A2295885A">Data1!$AO$1:$AO$10,Data1!$AO$18:$AO$172</definedName>
-    <definedName name="A2295885A_Data">Data1!$AO$18:$AO$172</definedName>
-    <definedName name="A2295885A_Latest">Data1!$AO$172</definedName>
-    <definedName name="A2295888J">Data1!$AP$1:$AP$10,Data1!$AP$18:$AP$172</definedName>
-    <definedName name="A2295888J_Data">Data1!$AP$18:$AP$172</definedName>
-    <definedName name="A2295888J_Latest">Data1!$AP$172</definedName>
-    <definedName name="A2295891W">Data1!$AQ$1:$AQ$10,Data1!$AQ$18:$AQ$172</definedName>
-    <definedName name="A2295891W_Data">Data1!$AQ$18:$AQ$172</definedName>
-    <definedName name="A2295891W_Latest">Data1!$AQ$172</definedName>
-    <definedName name="A2295894C">Data1!$AS$1:$AS$10,Data1!$AS$18:$AS$172</definedName>
-    <definedName name="A2295894C_Data">Data1!$AS$18:$AS$172</definedName>
-    <definedName name="A2295894C_Latest">Data1!$AS$172</definedName>
-    <definedName name="A2295897K">Data1!$AT$1:$AT$10,Data1!$AT$18:$AT$172</definedName>
-    <definedName name="A2295897K_Data">Data1!$AT$18:$AT$172</definedName>
-    <definedName name="A2295897K_Latest">Data1!$AT$172</definedName>
-    <definedName name="A2295900L">Data1!$AU$1:$AU$10,Data1!$AU$18:$AU$172</definedName>
-    <definedName name="A2295900L_Data">Data1!$AU$18:$AU$172</definedName>
-    <definedName name="A2295900L_Latest">Data1!$AU$172</definedName>
-    <definedName name="A2295903V">Data1!$AV$1:$AV$10,Data1!$AV$18:$AV$172</definedName>
-    <definedName name="A2295903V_Data">Data1!$AV$18:$AV$172</definedName>
-    <definedName name="A2295903V_Latest">Data1!$AV$172</definedName>
-    <definedName name="A2295906A">Data1!$AW$1:$AW$10,Data1!$AW$18:$AW$172</definedName>
-    <definedName name="A2295906A_Data">Data1!$AW$18:$AW$172</definedName>
-    <definedName name="A2295906A_Latest">Data1!$AW$172</definedName>
-    <definedName name="A2295909J">Data1!$AX$1:$AX$10,Data1!$AX$18:$AX$172</definedName>
-    <definedName name="A2295909J_Data">Data1!$AX$18:$AX$172</definedName>
-    <definedName name="A2295909J_Latest">Data1!$AX$172</definedName>
-    <definedName name="A2295912W">Data1!$AY$1:$AY$10,Data1!$AY$18:$AY$172</definedName>
-    <definedName name="A2295912W_Data">Data1!$AY$18:$AY$172</definedName>
-    <definedName name="A2295912W_Latest">Data1!$AY$172</definedName>
-    <definedName name="A2295915C">Data1!$AZ$1:$AZ$10,Data1!$AZ$18:$AZ$172</definedName>
-    <definedName name="A2295915C_Data">Data1!$AZ$18:$AZ$172</definedName>
-    <definedName name="A2295915C_Latest">Data1!$AZ$172</definedName>
-    <definedName name="A2295918K">Data1!$BB$1:$BB$10,Data1!$BB$18:$BB$172</definedName>
-    <definedName name="A2295918K_Data">Data1!$BB$18:$BB$172</definedName>
-    <definedName name="A2295918K_Latest">Data1!$BB$172</definedName>
-    <definedName name="A2295921X">Data1!$BC$1:$BC$10,Data1!$BC$18:$BC$172</definedName>
-    <definedName name="A2295921X_Data">Data1!$BC$18:$BC$172</definedName>
-    <definedName name="A2295921X_Latest">Data1!$BC$172</definedName>
-    <definedName name="A2295924F">Data1!$BD$1:$BD$10,Data1!$BD$18:$BD$172</definedName>
-    <definedName name="A2295924F_Data">Data1!$BD$18:$BD$172</definedName>
-    <definedName name="A2295924F_Latest">Data1!$BD$172</definedName>
-    <definedName name="A2295927L">Data1!$BE$1:$BE$10,Data1!$BE$18:$BE$172</definedName>
-    <definedName name="A2295927L_Data">Data1!$BE$18:$BE$172</definedName>
-    <definedName name="A2295927L_Latest">Data1!$BE$172</definedName>
-    <definedName name="A2295930A">Data1!$BF$1:$BF$10,Data1!$BF$18:$BF$172</definedName>
-    <definedName name="A2295930A_Data">Data1!$BF$18:$BF$172</definedName>
-    <definedName name="A2295930A_Latest">Data1!$BF$172</definedName>
-    <definedName name="A2295933J">Data1!$BG$1:$BG$10,Data1!$BG$18:$BG$172</definedName>
-    <definedName name="A2295933J_Data">Data1!$BG$18:$BG$172</definedName>
-    <definedName name="A2295933J_Latest">Data1!$BG$172</definedName>
-    <definedName name="A2295936R">Data1!$BH$1:$BH$10,Data1!$BH$18:$BH$172</definedName>
-    <definedName name="A2295936R_Data">Data1!$BH$18:$BH$172</definedName>
-    <definedName name="A2295936R_Latest">Data1!$BH$172</definedName>
-    <definedName name="A2295939W">Data1!$BI$1:$BI$10,Data1!$BI$18:$BI$172</definedName>
-    <definedName name="A2295939W_Data">Data1!$BI$18:$BI$172</definedName>
-    <definedName name="A2295939W_Latest">Data1!$BI$172</definedName>
-    <definedName name="A2295942K">Data1!$BK$1:$BK$10,Data1!$BK$18:$BK$172</definedName>
-    <definedName name="A2295942K_Data">Data1!$BK$18:$BK$172</definedName>
-    <definedName name="A2295942K_Latest">Data1!$BK$172</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$172</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$172</definedName>
+    <definedName name="A2295765J">Data1!$B$1:$B$10,Data1!$B$11:$B$173</definedName>
+    <definedName name="A2295765J_Data">Data1!$B$11:$B$173</definedName>
+    <definedName name="A2295765J_Latest">Data1!$B$173</definedName>
+    <definedName name="A2295766K">Data1!$C$1:$C$10,Data1!$C$12:$C$173</definedName>
+    <definedName name="A2295766K_Data">Data1!$C$12:$C$173</definedName>
+    <definedName name="A2295766K_Latest">Data1!$C$173</definedName>
+    <definedName name="A2295767L">Data1!$D$1:$D$10,Data1!$D$15:$D$173</definedName>
+    <definedName name="A2295767L_Data">Data1!$D$15:$D$173</definedName>
+    <definedName name="A2295767L_Latest">Data1!$D$173</definedName>
+    <definedName name="A2295768R">Data1!$E$1:$E$10,Data1!$E$11:$E$173</definedName>
+    <definedName name="A2295768R_Data">Data1!$E$11:$E$173</definedName>
+    <definedName name="A2295768R_Latest">Data1!$E$173</definedName>
+    <definedName name="A2295771C">Data1!$K$1:$K$10,Data1!$K$11:$K$173</definedName>
+    <definedName name="A2295771C_Data">Data1!$K$11:$K$173</definedName>
+    <definedName name="A2295771C_Latest">Data1!$K$173</definedName>
+    <definedName name="A2295774K">Data1!$N$1:$N$10,Data1!$N$11:$N$173</definedName>
+    <definedName name="A2295774K_Data">Data1!$N$11:$N$173</definedName>
+    <definedName name="A2295774K_Latest">Data1!$N$173</definedName>
+    <definedName name="A2295777T">Data1!$T$1:$T$10,Data1!$T$11:$T$173</definedName>
+    <definedName name="A2295777T_Data">Data1!$T$11:$T$173</definedName>
+    <definedName name="A2295777T_Latest">Data1!$T$173</definedName>
+    <definedName name="A2295780F">Data1!$V$1:$V$10,Data1!$V$11:$V$173</definedName>
+    <definedName name="A2295780F_Data">Data1!$V$11:$V$173</definedName>
+    <definedName name="A2295780F_Latest">Data1!$V$173</definedName>
+    <definedName name="A2295783L">Data1!$X$1:$X$10,Data1!$X$11:$X$173</definedName>
+    <definedName name="A2295783L_Data">Data1!$X$11:$X$173</definedName>
+    <definedName name="A2295783L_Latest">Data1!$X$173</definedName>
+    <definedName name="A2295786V">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$173</definedName>
+    <definedName name="A2295786V_Data">Data1!$AH$11:$AH$173</definedName>
+    <definedName name="A2295786V_Latest">Data1!$AH$173</definedName>
+    <definedName name="A2295789A">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$173</definedName>
+    <definedName name="A2295789A_Data">Data1!$AR$11:$AR$173</definedName>
+    <definedName name="A2295789A_Latest">Data1!$AR$173</definedName>
+    <definedName name="A2295792R">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$173</definedName>
+    <definedName name="A2295792R_Data">Data1!$BA$11:$BA$173</definedName>
+    <definedName name="A2295792R_Latest">Data1!$BA$173</definedName>
+    <definedName name="A2295795W">Data1!$BJ$1:$BJ$10,Data1!$BJ$18:$BJ$173</definedName>
+    <definedName name="A2295795W_Data">Data1!$BJ$18:$BJ$173</definedName>
+    <definedName name="A2295795W_Latest">Data1!$BJ$173</definedName>
+    <definedName name="A2295798C">Data1!$F$1:$F$10,Data1!$F$18:$F$173</definedName>
+    <definedName name="A2295798C_Data">Data1!$F$18:$F$173</definedName>
+    <definedName name="A2295798C_Latest">Data1!$F$173</definedName>
+    <definedName name="A2295801F">Data1!$G$1:$G$10,Data1!$G$18:$G$173</definedName>
+    <definedName name="A2295801F_Data">Data1!$G$18:$G$173</definedName>
+    <definedName name="A2295801F_Latest">Data1!$G$173</definedName>
+    <definedName name="A2295804L">Data1!$H$1:$H$10,Data1!$H$18:$H$173</definedName>
+    <definedName name="A2295804L_Data">Data1!$H$18:$H$173</definedName>
+    <definedName name="A2295804L_Latest">Data1!$H$173</definedName>
+    <definedName name="A2295807V">Data1!$I$1:$I$10,Data1!$I$18:$I$173</definedName>
+    <definedName name="A2295807V_Data">Data1!$I$18:$I$173</definedName>
+    <definedName name="A2295807V_Latest">Data1!$I$173</definedName>
+    <definedName name="A2295810J">Data1!$J$1:$J$10,Data1!$J$50:$J$173</definedName>
+    <definedName name="A2295810J_Data">Data1!$J$50:$J$173</definedName>
+    <definedName name="A2295810J_Latest">Data1!$J$173</definedName>
+    <definedName name="A2295813R">Data1!$L$1:$L$10,Data1!$L$18:$L$173</definedName>
+    <definedName name="A2295813R_Data">Data1!$L$18:$L$173</definedName>
+    <definedName name="A2295813R_Latest">Data1!$L$173</definedName>
+    <definedName name="A2295816W">Data1!$M$1:$M$10,Data1!$M$18:$M$173</definedName>
+    <definedName name="A2295816W_Data">Data1!$M$18:$M$173</definedName>
+    <definedName name="A2295816W_Latest">Data1!$M$173</definedName>
+    <definedName name="A2295819C">Data1!$O$1:$O$10,Data1!$O$18:$O$173</definedName>
+    <definedName name="A2295819C_Data">Data1!$O$18:$O$173</definedName>
+    <definedName name="A2295819C_Latest">Data1!$O$173</definedName>
+    <definedName name="A2295822T">Data1!$P$1:$P$10,Data1!$P$18:$P$173</definedName>
+    <definedName name="A2295822T_Data">Data1!$P$18:$P$173</definedName>
+    <definedName name="A2295822T_Latest">Data1!$P$173</definedName>
+    <definedName name="A2295825X">Data1!$Q$1:$Q$10,Data1!$Q$18:$Q$173</definedName>
+    <definedName name="A2295825X_Data">Data1!$Q$18:$Q$173</definedName>
+    <definedName name="A2295825X_Latest">Data1!$Q$173</definedName>
+    <definedName name="A2295828F">Data1!$R$1:$R$10,Data1!$R$18:$R$173</definedName>
+    <definedName name="A2295828F_Data">Data1!$R$18:$R$173</definedName>
+    <definedName name="A2295828F_Latest">Data1!$R$173</definedName>
+    <definedName name="A2295831V">Data1!$S$1:$S$10,Data1!$S$18:$S$173</definedName>
+    <definedName name="A2295831V_Data">Data1!$S$18:$S$173</definedName>
+    <definedName name="A2295831V_Latest">Data1!$S$173</definedName>
+    <definedName name="A2295834A">Data1!$U$1:$U$10,Data1!$U$18:$U$173</definedName>
+    <definedName name="A2295834A_Data">Data1!$U$18:$U$173</definedName>
+    <definedName name="A2295834A_Latest">Data1!$U$173</definedName>
+    <definedName name="A2295837J">Data1!$W$1:$W$10,Data1!$W$18:$W$173</definedName>
+    <definedName name="A2295837J_Data">Data1!$W$18:$W$173</definedName>
+    <definedName name="A2295837J_Latest">Data1!$W$173</definedName>
+    <definedName name="A2295840W">Data1!$Y$1:$Y$10,Data1!$Y$18:$Y$173</definedName>
+    <definedName name="A2295840W_Data">Data1!$Y$18:$Y$173</definedName>
+    <definedName name="A2295840W_Latest">Data1!$Y$173</definedName>
+    <definedName name="A2295843C">Data1!$Z$1:$Z$10,Data1!$Z$18:$Z$173</definedName>
+    <definedName name="A2295843C_Data">Data1!$Z$18:$Z$173</definedName>
+    <definedName name="A2295843C_Latest">Data1!$Z$173</definedName>
+    <definedName name="A2295846K">Data1!$AA$1:$AA$10,Data1!$AA$18:$AA$173</definedName>
+    <definedName name="A2295846K_Data">Data1!$AA$18:$AA$173</definedName>
+    <definedName name="A2295846K_Latest">Data1!$AA$173</definedName>
+    <definedName name="A2295849T">Data1!$AB$1:$AB$10,Data1!$AB$18:$AB$173</definedName>
+    <definedName name="A2295849T_Data">Data1!$AB$18:$AB$173</definedName>
+    <definedName name="A2295849T_Latest">Data1!$AB$173</definedName>
+    <definedName name="A2295852F">Data1!$AC$1:$AC$10,Data1!$AC$18:$AC$173</definedName>
+    <definedName name="A2295852F_Data">Data1!$AC$18:$AC$173</definedName>
+    <definedName name="A2295852F_Latest">Data1!$AC$173</definedName>
+    <definedName name="A2295855L">Data1!$AD$1:$AD$10,Data1!$AD$18:$AD$173</definedName>
+    <definedName name="A2295855L_Data">Data1!$AD$18:$AD$173</definedName>
+    <definedName name="A2295855L_Latest">Data1!$AD$173</definedName>
+    <definedName name="A2295858V">Data1!$AE$1:$AE$10,Data1!$AE$50:$AE$173</definedName>
+    <definedName name="A2295858V_Data">Data1!$AE$50:$AE$173</definedName>
+    <definedName name="A2295858V_Latest">Data1!$AE$173</definedName>
+    <definedName name="A2295861J">Data1!$AF$1:$AF$10,Data1!$AF$50:$AF$173</definedName>
+    <definedName name="A2295861J_Data">Data1!$AF$50:$AF$173</definedName>
+    <definedName name="A2295861J_Latest">Data1!$AF$173</definedName>
+    <definedName name="A2295864R">Data1!$AG$1:$AG$10,Data1!$AG$18:$AG$173</definedName>
+    <definedName name="A2295864R_Data">Data1!$AG$18:$AG$173</definedName>
+    <definedName name="A2295864R_Latest">Data1!$AG$173</definedName>
+    <definedName name="A2295867W">Data1!$AI$1:$AI$10,Data1!$AI$18:$AI$173</definedName>
+    <definedName name="A2295867W_Data">Data1!$AI$18:$AI$173</definedName>
+    <definedName name="A2295867W_Latest">Data1!$AI$173</definedName>
+    <definedName name="A2295870K">Data1!$AJ$1:$AJ$10,Data1!$AJ$18:$AJ$173</definedName>
+    <definedName name="A2295870K_Data">Data1!$AJ$18:$AJ$173</definedName>
+    <definedName name="A2295870K_Latest">Data1!$AJ$173</definedName>
+    <definedName name="A2295873T">Data1!$AK$1:$AK$10,Data1!$AK$18:$AK$173</definedName>
+    <definedName name="A2295873T_Data">Data1!$AK$18:$AK$173</definedName>
+    <definedName name="A2295873T_Latest">Data1!$AK$173</definedName>
+    <definedName name="A2295876X">Data1!$AL$1:$AL$10,Data1!$AL$18:$AL$173</definedName>
+    <definedName name="A2295876X_Data">Data1!$AL$18:$AL$173</definedName>
+    <definedName name="A2295876X_Latest">Data1!$AL$173</definedName>
+    <definedName name="A2295879F">Data1!$AM$1:$AM$10,Data1!$AM$18:$AM$173</definedName>
+    <definedName name="A2295879F_Data">Data1!$AM$18:$AM$173</definedName>
+    <definedName name="A2295879F_Latest">Data1!$AM$173</definedName>
+    <definedName name="A2295882V">Data1!$AN$1:$AN$10,Data1!$AN$18:$AN$173</definedName>
+    <definedName name="A2295882V_Data">Data1!$AN$18:$AN$173</definedName>
+    <definedName name="A2295882V_Latest">Data1!$AN$173</definedName>
+    <definedName name="A2295885A">Data1!$AO$1:$AO$10,Data1!$AO$18:$AO$173</definedName>
+    <definedName name="A2295885A_Data">Data1!$AO$18:$AO$173</definedName>
+    <definedName name="A2295885A_Latest">Data1!$AO$173</definedName>
+    <definedName name="A2295888J">Data1!$AP$1:$AP$10,Data1!$AP$18:$AP$173</definedName>
+    <definedName name="A2295888J_Data">Data1!$AP$18:$AP$173</definedName>
+    <definedName name="A2295888J_Latest">Data1!$AP$173</definedName>
+    <definedName name="A2295891W">Data1!$AQ$1:$AQ$10,Data1!$AQ$18:$AQ$173</definedName>
+    <definedName name="A2295891W_Data">Data1!$AQ$18:$AQ$173</definedName>
+    <definedName name="A2295891W_Latest">Data1!$AQ$173</definedName>
+    <definedName name="A2295894C">Data1!$AS$1:$AS$10,Data1!$AS$18:$AS$173</definedName>
+    <definedName name="A2295894C_Data">Data1!$AS$18:$AS$173</definedName>
+    <definedName name="A2295894C_Latest">Data1!$AS$173</definedName>
+    <definedName name="A2295897K">Data1!$AT$1:$AT$10,Data1!$AT$18:$AT$173</definedName>
+    <definedName name="A2295897K_Data">Data1!$AT$18:$AT$173</definedName>
+    <definedName name="A2295897K_Latest">Data1!$AT$173</definedName>
+    <definedName name="A2295900L">Data1!$AU$1:$AU$10,Data1!$AU$18:$AU$173</definedName>
+    <definedName name="A2295900L_Data">Data1!$AU$18:$AU$173</definedName>
+    <definedName name="A2295900L_Latest">Data1!$AU$173</definedName>
+    <definedName name="A2295903V">Data1!$AV$1:$AV$10,Data1!$AV$18:$AV$173</definedName>
+    <definedName name="A2295903V_Data">Data1!$AV$18:$AV$173</definedName>
+    <definedName name="A2295903V_Latest">Data1!$AV$173</definedName>
+    <definedName name="A2295906A">Data1!$AW$1:$AW$10,Data1!$AW$18:$AW$173</definedName>
+    <definedName name="A2295906A_Data">Data1!$AW$18:$AW$173</definedName>
+    <definedName name="A2295906A_Latest">Data1!$AW$173</definedName>
+    <definedName name="A2295909J">Data1!$AX$1:$AX$10,Data1!$AX$18:$AX$173</definedName>
+    <definedName name="A2295909J_Data">Data1!$AX$18:$AX$173</definedName>
+    <definedName name="A2295909J_Latest">Data1!$AX$173</definedName>
+    <definedName name="A2295912W">Data1!$AY$1:$AY$10,Data1!$AY$18:$AY$173</definedName>
+    <definedName name="A2295912W_Data">Data1!$AY$18:$AY$173</definedName>
+    <definedName name="A2295912W_Latest">Data1!$AY$173</definedName>
+    <definedName name="A2295915C">Data1!$AZ$1:$AZ$10,Data1!$AZ$18:$AZ$173</definedName>
+    <definedName name="A2295915C_Data">Data1!$AZ$18:$AZ$173</definedName>
+    <definedName name="A2295915C_Latest">Data1!$AZ$173</definedName>
+    <definedName name="A2295918K">Data1!$BB$1:$BB$10,Data1!$BB$18:$BB$173</definedName>
+    <definedName name="A2295918K_Data">Data1!$BB$18:$BB$173</definedName>
+    <definedName name="A2295918K_Latest">Data1!$BB$173</definedName>
+    <definedName name="A2295921X">Data1!$BC$1:$BC$10,Data1!$BC$18:$BC$173</definedName>
+    <definedName name="A2295921X_Data">Data1!$BC$18:$BC$173</definedName>
+    <definedName name="A2295921X_Latest">Data1!$BC$173</definedName>
+    <definedName name="A2295924F">Data1!$BD$1:$BD$10,Data1!$BD$18:$BD$173</definedName>
+    <definedName name="A2295924F_Data">Data1!$BD$18:$BD$173</definedName>
+    <definedName name="A2295924F_Latest">Data1!$BD$173</definedName>
+    <definedName name="A2295927L">Data1!$BE$1:$BE$10,Data1!$BE$18:$BE$173</definedName>
+    <definedName name="A2295927L_Data">Data1!$BE$18:$BE$173</definedName>
+    <definedName name="A2295927L_Latest">Data1!$BE$173</definedName>
+    <definedName name="A2295930A">Data1!$BF$1:$BF$10,Data1!$BF$18:$BF$173</definedName>
+    <definedName name="A2295930A_Data">Data1!$BF$18:$BF$173</definedName>
+    <definedName name="A2295930A_Latest">Data1!$BF$173</definedName>
+    <definedName name="A2295933J">Data1!$BG$1:$BG$10,Data1!$BG$18:$BG$173</definedName>
+    <definedName name="A2295933J_Data">Data1!$BG$18:$BG$173</definedName>
+    <definedName name="A2295933J_Latest">Data1!$BG$173</definedName>
+    <definedName name="A2295936R">Data1!$BH$1:$BH$10,Data1!$BH$18:$BH$173</definedName>
+    <definedName name="A2295936R_Data">Data1!$BH$18:$BH$173</definedName>
+    <definedName name="A2295936R_Latest">Data1!$BH$173</definedName>
+    <definedName name="A2295939W">Data1!$BI$1:$BI$10,Data1!$BI$18:$BI$173</definedName>
+    <definedName name="A2295939W_Data">Data1!$BI$18:$BI$173</definedName>
+    <definedName name="A2295939W_Latest">Data1!$BI$173</definedName>
+    <definedName name="A2295942K">Data1!$BK$1:$BK$10,Data1!$BK$18:$BK$173</definedName>
+    <definedName name="A2295942K_Data">Data1!$BK$18:$BK$173</definedName>
+    <definedName name="A2295942K_Latest">Data1!$BK$173</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$173</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$173</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2966,10 +2966,10 @@
         <v>29830</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>71</v>
@@ -2998,10 +2998,10 @@
         <v>29921</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>76</v>
@@ -3030,10 +3030,10 @@
         <v>30195</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>76</v>
@@ -3062,10 +3062,10 @@
         <v>29830</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>71</v>
@@ -3094,10 +3094,10 @@
         <v>30468</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>71</v>
@@ -3126,10 +3126,10 @@
         <v>30468</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>71</v>
@@ -3158,10 +3158,10 @@
         <v>30468</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>71</v>
@@ -3190,10 +3190,10 @@
         <v>30468</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>71</v>
@@ -3222,10 +3222,10 @@
         <v>33390</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>71</v>
@@ -3254,10 +3254,10 @@
         <v>29830</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>71</v>
@@ -3286,10 +3286,10 @@
         <v>30468</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>71</v>
@@ -3318,10 +3318,10 @@
         <v>30468</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>71</v>
@@ -3350,10 +3350,10 @@
         <v>29830</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>71</v>
@@ -3382,10 +3382,10 @@
         <v>30468</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>71</v>
@@ -3414,10 +3414,10 @@
         <v>30468</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>71</v>
@@ -3446,10 +3446,10 @@
         <v>30468</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>71</v>
@@ -3478,10 +3478,10 @@
         <v>30468</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>71</v>
@@ -3510,10 +3510,10 @@
         <v>30468</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>71</v>
@@ -3542,10 +3542,10 @@
         <v>29830</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>71</v>
@@ -3574,10 +3574,10 @@
         <v>30468</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>71</v>
@@ -3606,10 +3606,10 @@
         <v>29830</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>71</v>
@@ -3638,10 +3638,10 @@
         <v>30468</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>71</v>
@@ -3670,10 +3670,10 @@
         <v>29830</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>71</v>
@@ -3702,10 +3702,10 @@
         <v>30468</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>71</v>
@@ -3734,10 +3734,10 @@
         <v>30468</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>71</v>
@@ -3766,10 +3766,10 @@
         <v>30468</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>71</v>
@@ -3798,10 +3798,10 @@
         <v>30468</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>71</v>
@@ -3830,10 +3830,10 @@
         <v>30468</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>71</v>
@@ -3862,10 +3862,10 @@
         <v>30468</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>71</v>
@@ -3894,10 +3894,10 @@
         <v>33390</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>71</v>
@@ -3926,10 +3926,10 @@
         <v>33390</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>71</v>
@@ -3958,10 +3958,10 @@
         <v>30468</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>71</v>
@@ -3990,10 +3990,10 @@
         <v>29830</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>71</v>
@@ -4022,10 +4022,10 @@
         <v>30468</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>71</v>
@@ -4054,10 +4054,10 @@
         <v>30468</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>71</v>
@@ -4086,10 +4086,10 @@
         <v>30468</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>71</v>
@@ -4118,10 +4118,10 @@
         <v>30468</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>71</v>
@@ -4150,10 +4150,10 @@
         <v>30468</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>71</v>
@@ -4182,10 +4182,10 @@
         <v>30468</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>71</v>
@@ -4214,10 +4214,10 @@
         <v>30468</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>71</v>
@@ -4246,10 +4246,10 @@
         <v>30468</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>71</v>
@@ -4278,10 +4278,10 @@
         <v>30468</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>71</v>
@@ -4310,10 +4310,10 @@
         <v>29830</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>71</v>
@@ -4342,10 +4342,10 @@
         <v>30468</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>71</v>
@@ -4374,10 +4374,10 @@
         <v>30468</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>71</v>
@@ -4406,10 +4406,10 @@
         <v>30468</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>71</v>
@@ -4438,10 +4438,10 @@
         <v>30468</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>71</v>
@@ -4470,10 +4470,10 @@
         <v>30468</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>71</v>
@@ -4502,10 +4502,10 @@
         <v>30468</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>71</v>
@@ -4534,10 +4534,10 @@
         <v>30468</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>71</v>
@@ -4566,10 +4566,10 @@
         <v>30468</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>71</v>
@@ -4598,10 +4598,10 @@
         <v>29830</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>71</v>
@@ -4630,10 +4630,10 @@
         <v>30468</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>71</v>
@@ -4662,10 +4662,10 @@
         <v>30468</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>71</v>
@@ -4694,10 +4694,10 @@
         <v>30468</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>71</v>
@@ -4726,10 +4726,10 @@
         <v>30468</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>71</v>
@@ -4758,10 +4758,10 @@
         <v>30468</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>71</v>
@@ -4790,10 +4790,10 @@
         <v>30468</v>
       </c>
       <c r="G69" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H69" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>71</v>
@@ -4822,10 +4822,10 @@
         <v>30468</v>
       </c>
       <c r="G70" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H70" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>71</v>
@@ -4854,10 +4854,10 @@
         <v>30468</v>
       </c>
       <c r="G71" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H71" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>71</v>
@@ -4886,10 +4886,10 @@
         <v>30468</v>
       </c>
       <c r="G72" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H72" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>71</v>
@@ -4918,10 +4918,10 @@
         <v>30468</v>
       </c>
       <c r="G73" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H73" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>71</v>
@@ -5018,7 +5018,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6371,190 +6371,190 @@
         <v>68</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
@@ -6562,190 +6562,190 @@
         <v>69</v>
       </c>
       <c r="B9" s="1">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1">
         <v>162</v>
       </c>
-      <c r="C9" s="1">
-        <v>161</v>
-      </c>
       <c r="D9" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J9" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AE9" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AH9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AR9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AT9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AU9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AV9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AW9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AX9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AY9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AZ9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BA9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BB9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BC9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BD9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BE9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BF9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BG9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BH9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BI9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BJ9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BK9" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
@@ -36526,6 +36526,197 @@
       </c>
       <c r="BK172" s="8">
         <v>127.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A173" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B173" s="8">
+        <v>126.6</v>
+      </c>
+      <c r="C173" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D173" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="E173" s="8">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="F173" s="8">
+        <v>125.2</v>
+      </c>
+      <c r="G173" s="8">
+        <v>205.4</v>
+      </c>
+      <c r="H173" s="8">
+        <v>192.4</v>
+      </c>
+      <c r="I173" s="8">
+        <v>130.5</v>
+      </c>
+      <c r="J173" s="8">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="K173" s="8">
+        <v>104</v>
+      </c>
+      <c r="L173" s="8">
+        <v>100</v>
+      </c>
+      <c r="M173" s="8">
+        <v>124.6</v>
+      </c>
+      <c r="N173" s="8">
+        <v>183.1</v>
+      </c>
+      <c r="O173" s="8">
+        <v>60.9</v>
+      </c>
+      <c r="P173" s="8">
+        <v>202.8</v>
+      </c>
+      <c r="Q173" s="8">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="R173" s="8">
+        <v>93</v>
+      </c>
+      <c r="S173" s="8">
+        <v>120.2</v>
+      </c>
+      <c r="T173" s="8">
+        <v>118.5</v>
+      </c>
+      <c r="U173" s="8">
+        <v>119</v>
+      </c>
+      <c r="V173" s="8">
+        <v>171.5</v>
+      </c>
+      <c r="W173" s="8">
+        <v>171.5</v>
+      </c>
+      <c r="X173" s="8">
+        <v>123.6</v>
+      </c>
+      <c r="Y173" s="8">
+        <v>165.1</v>
+      </c>
+      <c r="Z173" s="8">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="AA173" s="8">
+        <v>165.9</v>
+      </c>
+      <c r="AB173" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="AC173" s="8">
+        <v>133.4</v>
+      </c>
+      <c r="AD173" s="8">
+        <v>212</v>
+      </c>
+      <c r="AE173" s="8">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="AF173" s="8">
+        <v>127.1</v>
+      </c>
+      <c r="AG173" s="8">
+        <v>162.1</v>
+      </c>
+      <c r="AH173" s="8">
+        <v>139</v>
+      </c>
+      <c r="AI173" s="8">
+        <v>113.3</v>
+      </c>
+      <c r="AJ173" s="8">
+        <v>99.3</v>
+      </c>
+      <c r="AK173" s="8">
+        <v>175.9</v>
+      </c>
+      <c r="AL173" s="8">
+        <v>143.5</v>
+      </c>
+      <c r="AM173" s="8">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AN173" s="8">
+        <v>149.9</v>
+      </c>
+      <c r="AO173" s="8">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="AP173" s="8">
+        <v>130.1</v>
+      </c>
+      <c r="AQ173" s="8">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="AR173" s="8">
+        <v>122.9</v>
+      </c>
+      <c r="AS173" s="8">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="AT173" s="8">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="AU173" s="8">
+        <v>134.5</v>
+      </c>
+      <c r="AV173" s="8">
+        <v>120.5</v>
+      </c>
+      <c r="AW173" s="8">
+        <v>85.1</v>
+      </c>
+      <c r="AX173" s="8">
+        <v>129</v>
+      </c>
+      <c r="AY173" s="8">
+        <v>122.8</v>
+      </c>
+      <c r="AZ173" s="8">
+        <v>183.7</v>
+      </c>
+      <c r="BA173" s="8">
+        <v>132.1</v>
+      </c>
+      <c r="BB173" s="8">
+        <v>114.7</v>
+      </c>
+      <c r="BC173" s="8">
+        <v>153.6</v>
+      </c>
+      <c r="BD173" s="8">
+        <v>159.5</v>
+      </c>
+      <c r="BE173" s="8">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="BF173" s="8">
+        <v>151</v>
+      </c>
+      <c r="BG173" s="8">
+        <v>116.8</v>
+      </c>
+      <c r="BH173" s="8">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="BI173" s="8">
+        <v>125.3</v>
+      </c>
+      <c r="BJ173" s="8">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="BK173" s="8">
+        <v>133.69999999999999</v>
       </c>
     </row>
   </sheetData>
